--- a/data/seed_burial_dt.xlsx
+++ b/data/seed_burial_dt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="6 Months" sheetId="1" state="visible" r:id="rId3"/>
@@ -497,7 +497,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +537,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -614,7 +620,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -708,6 +714,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -962,7 +972,7 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -16092,8 +16102,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I46" activeCellId="0" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16490,7 +16500,9 @@
         <f aca="false">I6+J6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M6" s="10" t="n">
         <f aca="false">I6+J6+L6</f>
         <v>0</v>
@@ -16523,9 +16535,8 @@
         <f aca="false">(M6/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U6" s="10" t="e">
-        <f aca="false">(L6/M6)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U6" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16547,7 +16558,9 @@
       <c r="F7" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
@@ -16555,7 +16568,9 @@
         <f aca="false">I7+J7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M7" s="10" t="n">
         <f aca="false">I7+J7+L7</f>
         <v>0</v>
@@ -16568,29 +16583,25 @@
         <f aca="false">(N7/F7)*100</f>
         <v>100</v>
       </c>
-      <c r="P7" s="10" t="e">
-        <f aca="false">(K7/G7)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="10" t="e">
-        <f aca="false">(M7/G7)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="10" t="e">
+      <c r="P7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10" t="n">
         <f aca="false">100-Q7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="10" t="e">
-        <f aca="false">(L7/G7)*100</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
+      </c>
+      <c r="S7" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T7" s="10" t="n">
         <f aca="false">(M7/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U7" s="10" t="e">
-        <f aca="false">(L7/M7)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U7" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16612,7 +16623,9 @@
       <c r="F8" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -16635,29 +16648,25 @@
         <f aca="false">(N8/F8)*100</f>
         <v>100</v>
       </c>
-      <c r="P8" s="10" t="e">
-        <f aca="false">(K8/G8)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="10" t="e">
-        <f aca="false">(M8/G8)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="10" t="e">
+      <c r="P8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10" t="n">
         <f aca="false">100-Q8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="10" t="e">
-        <f aca="false">(L8/G8)*100</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
+      </c>
+      <c r="S8" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T8" s="10" t="n">
         <f aca="false">(M8/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U8" s="10" t="e">
-        <f aca="false">(L8/M8)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U8" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16764,7 +16773,9 @@
         <f aca="false">I10+J10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M10" s="10" t="n">
         <f aca="false">I10+J10+L10</f>
         <v>0</v>
@@ -16797,9 +16808,8 @@
         <f aca="false">(M10/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U10" s="10" t="e">
-        <f aca="false">(L10/M10)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U10" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16892,7 +16902,9 @@
       <c r="F12" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -16915,21 +16927,18 @@
         <f aca="false">(N12/F12)*100</f>
         <v>100</v>
       </c>
-      <c r="P12" s="10" t="e">
-        <f aca="false">(K12/G12)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="10" t="e">
-        <f aca="false">(M12/G12)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="10" t="e">
+      <c r="P12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10" t="n">
         <f aca="false">100-Q12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" s="10" t="e">
-        <f aca="false">(L12/G12)*100</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
+      </c>
+      <c r="S12" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T12" s="10" t="n">
         <f aca="false">(M12/170)*100</f>
@@ -17006,9 +17015,8 @@
         <f aca="false">(M13/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U13" s="10" t="e">
-        <f aca="false">(L13/M13)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U13" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17044,7 +17052,9 @@
         <f aca="false">I14+J14</f>
         <v>1</v>
       </c>
-      <c r="L14" s="23"/>
+      <c r="L14" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M14" s="10" t="n">
         <f aca="false">I14+J14+L14</f>
         <v>1</v>
@@ -17367,9 +17377,8 @@
         <f aca="false">(M18/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U18" s="10" t="e">
-        <f aca="false">(L18/M18)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U18" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17403,7 +17412,9 @@
         <f aca="false">I19+J19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="23"/>
+      <c r="L19" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M19" s="10" t="n">
         <f aca="false">I19+J19+L19</f>
         <v>0</v>
@@ -17436,9 +17447,8 @@
         <f aca="false">(M19/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U19" s="10" t="e">
-        <f aca="false">(L19/M19)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U19" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17460,7 +17470,9 @@
       <c r="F20" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G20" s="23"/>
+      <c r="G20" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="10"/>
@@ -17468,7 +17480,9 @@
         <f aca="false">I20+J20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="23"/>
+      <c r="L20" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M20" s="10" t="n">
         <f aca="false">I20+J20+L20</f>
         <v>0</v>
@@ -17481,29 +17495,25 @@
         <f aca="false">(N20/F20)*100</f>
         <v>100</v>
       </c>
-      <c r="P20" s="10" t="e">
-        <f aca="false">(K20/G20)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="10" t="e">
-        <f aca="false">(M20/G20)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="10" t="e">
+      <c r="P20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="10" t="n">
         <f aca="false">100-Q20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="10" t="e">
-        <f aca="false">(L20/G20)*100</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
+      </c>
+      <c r="S20" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T20" s="10" t="n">
         <f aca="false">(M20/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U20" s="10" t="e">
-        <f aca="false">(L20/M20)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U20" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17525,7 +17535,9 @@
       <c r="F21" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="10"/>
@@ -17533,7 +17545,9 @@
         <f aca="false">I21+J21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="23"/>
+      <c r="L21" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M21" s="10" t="n">
         <f aca="false">I21+J21+L21</f>
         <v>0</v>
@@ -17546,29 +17560,25 @@
         <f aca="false">(N21/F21)*100</f>
         <v>100</v>
       </c>
-      <c r="P21" s="10" t="e">
-        <f aca="false">(K21/G21)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="10" t="e">
-        <f aca="false">(M21/G21)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="10" t="e">
+      <c r="P21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="10" t="n">
         <f aca="false">100-Q21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="10" t="e">
-        <f aca="false">(L21/G21)*100</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
+      </c>
+      <c r="S21" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T21" s="10" t="n">
         <f aca="false">(M21/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U21" s="10" t="e">
-        <f aca="false">(L21/M21)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U21" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17590,7 +17600,9 @@
       <c r="F22" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G22" s="23"/>
+      <c r="G22" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="10"/>
@@ -17598,7 +17610,9 @@
         <f aca="false">I22+J22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="23"/>
+      <c r="L22" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M22" s="10" t="n">
         <f aca="false">I22+J22+L22</f>
         <v>0</v>
@@ -17611,29 +17625,25 @@
         <f aca="false">(N22/F22)*100</f>
         <v>100</v>
       </c>
-      <c r="P22" s="10" t="e">
-        <f aca="false">(K22/G22)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" s="10" t="e">
-        <f aca="false">(M22/G22)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" s="10" t="e">
+      <c r="P22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="10" t="n">
         <f aca="false">100-Q22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="10" t="e">
-        <f aca="false">(L22/G22)*100</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
+      </c>
+      <c r="S22" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T22" s="10" t="n">
         <f aca="false">(M22/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U22" s="10" t="e">
-        <f aca="false">(L22/M22)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U22" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17655,7 +17665,9 @@
       <c r="F23" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G23" s="23"/>
+      <c r="G23" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="10"/>
@@ -17663,7 +17675,9 @@
         <f aca="false">I23+J23</f>
         <v>0</v>
       </c>
-      <c r="L23" s="23"/>
+      <c r="L23" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M23" s="10" t="n">
         <f aca="false">I23+J23+L23</f>
         <v>0</v>
@@ -17676,29 +17690,25 @@
         <f aca="false">(N23/F23)*100</f>
         <v>100</v>
       </c>
-      <c r="P23" s="10" t="e">
-        <f aca="false">(K23/G23)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" s="10" t="e">
-        <f aca="false">(M23/G23)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R23" s="10" t="e">
+      <c r="P23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="10" t="n">
         <f aca="false">100-Q23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="10" t="e">
-        <f aca="false">(L23/G23)*100</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
+      </c>
+      <c r="S23" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T23" s="10" t="n">
         <f aca="false">(M23/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U23" s="10" t="e">
-        <f aca="false">(L23/M23)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U23" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17720,7 +17730,9 @@
       <c r="F24" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="10"/>
@@ -17728,7 +17740,9 @@
         <f aca="false">I24+J24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="23"/>
+      <c r="L24" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M24" s="10" t="n">
         <f aca="false">I24+J24+L24</f>
         <v>0</v>
@@ -17741,29 +17755,25 @@
         <f aca="false">(N24/F24)*100</f>
         <v>100</v>
       </c>
-      <c r="P24" s="10" t="e">
-        <f aca="false">(K24/G24)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="10" t="e">
-        <f aca="false">(M24/G24)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="10" t="e">
+      <c r="P24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="10" t="n">
         <f aca="false">100-Q24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="10" t="e">
-        <f aca="false">(L24/G24)*100</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
+      </c>
+      <c r="S24" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T24" s="10" t="n">
         <f aca="false">(M24/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U24" s="10" t="e">
-        <f aca="false">(L24/M24)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U24" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17832,9 +17842,8 @@
         <f aca="false">(M25/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U25" s="10" t="e">
-        <f aca="false">(L25/M25)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U25" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18379,7 +18388,9 @@
         <f aca="false">I33+J33</f>
         <v>6</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="L33" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M33" s="10" t="n">
         <f aca="false">I33+J33+L33</f>
         <v>6</v>
@@ -18436,7 +18447,9 @@
       <c r="F34" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G34" s="23"/>
+      <c r="G34" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
       <c r="J34" s="10" t="n">
@@ -18446,7 +18459,9 @@
         <f aca="false">I34+J34</f>
         <v>1</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M34" s="10" t="n">
         <f aca="false">I34+J34+L34</f>
         <v>1</v>
@@ -18459,21 +18474,17 @@
         <f aca="false">(N34/F34)*100</f>
         <v>100</v>
       </c>
-      <c r="P34" s="10" t="e">
-        <f aca="false">(K34/G34)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" s="10" t="e">
-        <f aca="false">(M34/G34)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R34" s="10" t="e">
-        <f aca="false">100-Q34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S34" s="10" t="e">
-        <f aca="false">(L34/G34)*100</f>
-        <v>#DIV/0!</v>
+      <c r="P34" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T34" s="10" t="n">
         <f aca="false">(M34/170)*100</f>
@@ -18503,7 +18514,9 @@
       <c r="F35" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G35" s="23"/>
+      <c r="G35" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
       <c r="J35" s="10"/>
@@ -18511,7 +18524,9 @@
         <f aca="false">I35+J35</f>
         <v>0</v>
       </c>
-      <c r="L35" s="10"/>
+      <c r="L35" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M35" s="10" t="n">
         <f aca="false">I35+J35+L35</f>
         <v>0</v>
@@ -18524,29 +18539,24 @@
         <f aca="false">(N35/F35)*100</f>
         <v>100</v>
       </c>
-      <c r="P35" s="10" t="e">
-        <f aca="false">(K35/G35)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" s="10" t="e">
-        <f aca="false">(M35/G35)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R35" s="10" t="e">
-        <f aca="false">100-Q35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S35" s="10" t="e">
-        <f aca="false">(L35/G35)*100</f>
-        <v>#DIV/0!</v>
+      <c r="P35" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T35" s="10" t="n">
         <f aca="false">(M35/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U35" s="10" t="e">
-        <f aca="false">(L35/M35)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U35" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18580,7 +18590,9 @@
         <f aca="false">I36+J36</f>
         <v>4</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M36" s="10" t="n">
         <f aca="false">I36+J36+L36</f>
         <v>4</v>
@@ -18637,7 +18649,9 @@
       <c r="F37" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G37" s="23"/>
+      <c r="G37" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="10"/>
@@ -18645,7 +18659,9 @@
         <f aca="false">I37+J37</f>
         <v>0</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M37" s="10" t="n">
         <f aca="false">I37+J37+L37</f>
         <v>0</v>
@@ -18658,29 +18674,25 @@
         <f aca="false">(N37/F37)*100</f>
         <v>100</v>
       </c>
-      <c r="P37" s="10" t="e">
-        <f aca="false">(K37/G37)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" s="10" t="e">
-        <f aca="false">(M37/G37)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R37" s="10" t="e">
+      <c r="P37" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="10" t="n">
         <f aca="false">100-Q37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S37" s="10" t="e">
-        <f aca="false">(L37/G37)*100</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
+      </c>
+      <c r="S37" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T37" s="10" t="n">
         <f aca="false">(M37/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U37" s="10" t="e">
-        <f aca="false">(L37/M37)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U37" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18751,9 +18763,8 @@
         <f aca="false">(M38/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U38" s="10" t="e">
-        <f aca="false">(L38/M38)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U38" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18935,7 +18946,9 @@
         <f aca="false">I41+J41</f>
         <v>19</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="L41" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M41" s="10" t="n">
         <f aca="false">I41+J41+L41</f>
         <v>19</v>
@@ -19211,7 +19224,9 @@
       <c r="F45" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G45" s="23"/>
+      <c r="G45" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
       <c r="J45" s="10" t="n">
@@ -19221,7 +19236,9 @@
         <f aca="false">I45+J45</f>
         <v>1</v>
       </c>
-      <c r="L45" s="10"/>
+      <c r="L45" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M45" s="10" t="n">
         <f aca="false">I45+J45+L45</f>
         <v>1</v>
@@ -19234,21 +19251,17 @@
         <f aca="false">(N45/F45)*100</f>
         <v>100</v>
       </c>
-      <c r="P45" s="10" t="e">
-        <f aca="false">(K45/G45)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q45" s="10" t="e">
-        <f aca="false">(M45/G45)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R45" s="10" t="e">
-        <f aca="false">100-Q45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S45" s="10" t="e">
-        <f aca="false">(L45/G45)*100</f>
-        <v>#DIV/0!</v>
+      <c r="P45" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T45" s="10" t="n">
         <f aca="false">(M45/170)*100</f>
@@ -19278,7 +19291,9 @@
       <c r="F46" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G46" s="23"/>
+      <c r="G46" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
@@ -19286,7 +19301,9 @@
         <f aca="false">I46+J46</f>
         <v>0</v>
       </c>
-      <c r="L46" s="10"/>
+      <c r="L46" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M46" s="10" t="n">
         <f aca="false">I46+J46+L46</f>
         <v>0</v>
@@ -19299,29 +19316,24 @@
         <f aca="false">(N46/F46)*100</f>
         <v>100</v>
       </c>
-      <c r="P46" s="10" t="e">
-        <f aca="false">(K46/G46)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q46" s="10" t="e">
-        <f aca="false">(M46/G46)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R46" s="10" t="e">
-        <f aca="false">100-Q46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S46" s="10" t="e">
-        <f aca="false">(L46/G46)*100</f>
-        <v>#DIV/0!</v>
+      <c r="P46" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T46" s="10" t="n">
         <f aca="false">(M46/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U46" s="10" t="e">
-        <f aca="false">(L46/M46)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U46" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19343,7 +19355,9 @@
       <c r="F47" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G47" s="23"/>
+      <c r="G47" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
@@ -19351,7 +19365,9 @@
         <f aca="false">I47+J47</f>
         <v>0</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="L47" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M47" s="10" t="n">
         <f aca="false">I47+J47+L47</f>
         <v>0</v>
@@ -19364,29 +19380,24 @@
         <f aca="false">(N47/F47)*100</f>
         <v>100</v>
       </c>
-      <c r="P47" s="10" t="e">
-        <f aca="false">(K47/G47)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q47" s="10" t="e">
-        <f aca="false">(M47/G47)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R47" s="10" t="e">
-        <f aca="false">100-Q47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S47" s="10" t="e">
-        <f aca="false">(L47/G47)*100</f>
-        <v>#DIV/0!</v>
+      <c r="P47" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T47" s="10" t="n">
         <f aca="false">(M47/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U47" s="10" t="e">
-        <f aca="false">(L47/M47)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U47" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19408,7 +19419,9 @@
       <c r="F48" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="G48" s="23"/>
+      <c r="G48" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
@@ -19416,7 +19429,9 @@
         <f aca="false">I48+J48</f>
         <v>0</v>
       </c>
-      <c r="L48" s="10"/>
+      <c r="L48" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M48" s="10" t="n">
         <f aca="false">I48+J48+L48</f>
         <v>0</v>
@@ -19429,29 +19444,24 @@
         <f aca="false">(N48/F48)*100</f>
         <v>100</v>
       </c>
-      <c r="P48" s="10" t="e">
-        <f aca="false">(K48/G48)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q48" s="10" t="e">
-        <f aca="false">(M48/G48)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R48" s="10" t="e">
-        <f aca="false">100-Q48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S48" s="10" t="e">
-        <f aca="false">(L48/G48)*100</f>
-        <v>#DIV/0!</v>
+      <c r="P48" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T48" s="10" t="n">
         <f aca="false">(M48/170)*100</f>
         <v>0</v>
       </c>
-      <c r="U48" s="10" t="e">
-        <f aca="false">(L48/M48)*100</f>
-        <v>#DIV/0!</v>
+      <c r="U48" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19485,7 +19495,9 @@
         <f aca="false">I49+J49</f>
         <v>4</v>
       </c>
-      <c r="L49" s="10"/>
+      <c r="L49" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="M49" s="10" t="n">
         <f aca="false">I49+J49+L49</f>
         <v>4</v>
